--- a/Input/MATSimInputAGBSimple43.xlsx
+++ b/Input/MATSimInputAGBSimple43.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2834DE-B610-45A4-BC22-2C81C0E6F048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16695" windowHeight="2985" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16695" windowHeight="2985" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,37 +480,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.1328125" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" customWidth="1"/>
-    <col min="13" max="16" width="11.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="16" width="11.140625" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" customWidth="1"/>
-    <col min="23" max="23" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2000000</v>
       </c>
@@ -653,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2000000</v>
       </c>
@@ -724,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2000000</v>
       </c>
@@ -795,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2000000</v>
       </c>
@@ -866,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000000</v>
       </c>
@@ -937,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2000000</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2000000</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2000000</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2000000</v>
       </c>
